--- a/report_mgmt_tool.xlsx
+++ b/report_mgmt_tool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16050" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="17910" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="報告内容" sheetId="1" r:id="rId1"/>
@@ -131,99 +131,6 @@
 ・ヘッドライン２
 日本の括弧物権を基づきば、:国のライセンスからしている利用権が、要求物権の代表をよ
 れことなく利用促し制限は、原則による著作法判断がするます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Create_RegurarReport()
-    Const MAX_ROWS = 100
-    Const MAX_COLS = 10
-    Dim wb
-    Dim myMail As MailItem
-    Dim myBody As String
-    Dim found As Boolean
-    Set wb = GetObject("C:\Users\ohba\Documents\git\report-mgmt\report_mgmt_tool.xlsm")
-    Set myMail = CreateItemFromTemplate("C:\Users\ohba\AppData\Roaming\Microsoft\Templates\report_template.oft")
-    'Set date
-    Dim today, xlDate As String
-    today = Date
-    'Search for today 's report
-    found = False
-    For iRow = 1 To MAX_ROWS
-        xlDate = wb.Worksheets(1).Cells(iRow, 1).Value
-        If xlDate = today Then
-          found = True
-          Exit For
-        End If
-    Next
-    If Not found Then
-        MsgBox ("今日報告分のエントリが見つかりませんでした。")
-        End
-    End If
-    myMail.Subject = wb.Worksheets(1).Cells(1, 1).Value
-    myMail.Subject = myMail.Subject &amp; "(" &amp; Format(today, "yyyy/m/d") &amp; ")"
-    'Search for columns
-    Dim itemTitle As String
-    For iCol = 2 To MAX_COLS
-        'Get title of report item
-        itemTitle = wb.Worksheets(1).Cells(1, iCol).Value
-        'Get content of report item
-        itemContent = wb.Worksheets(1).Cells(iRow, iCol).Value
-        If itemTitle &lt;&gt; "" And itemContent &lt;&gt; "" Then
-            myBody = myBody &amp; "&amp;lt;" &amp; itemTitle &amp; "&amp;gt;" &amp; "&lt;br&gt;&lt;br&gt;"
-            myBody = myBody &amp; itemContent &amp; "&lt;br&gt;&lt;br&gt;"
-        End If
-    Next
-    myMail.HTMLBody = Replace(myBody, vbLf, "&lt;br&gt;")
-    myMail.Display
-End Sub
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Create_RegurarReport()
-    Const MAX_ROWS = 100
-    Const MAX_COLS = 10
-    Dim wb
-    Dim myMail As MailItem
-    Dim myBody As String
-    Dim found As Boolean
-    Set wb = GetObject("C:\Users\ohba\Documents\報告データ.xlsm")
-    'Set myMail = ThisOutlookSession.CreateItem(olMailItem)
-    Set myMail = CreateItemFromTemplate("C:\Users\ohba\AppData\Roaming\Microsoft\Templates\報告.oft")
-    'Set date
-    Dim today, xlDate As String
-    today = Date
-    'Search for today 's report
-    found = False
-    For iRow = 1 To MAX_ROWS
-        xlDate = wb.Worksheets(1).Cells(iRow, 1).Value
-        If xlDate = today Then
-          found = True
-          Exit For
-        End If
-    Next
-    If Not found Then
-        MsgBox ("今日報告分のエントリが見つかりませんでした。")
-        End
-    End If
-    myMail.Subject = wb.Worksheets(1).Cells(1, 1).Value
-    myMail.Subject = myMail.Subject &amp; "(" &amp; Format(today, "yyyy/m/d") &amp; ")"
-    'Search for columns
-    Dim itemTitle As String
-    For iCol = 2 To MAX_COLS
-        'Get title of report item
-        itemTitle = wb.Worksheets(1).Cells(1, iCol).Value
-        'Get content of report item
-        itemContent = wb.Worksheets(1).Cells(iRow, iCol).Value
-        If itemTitle &lt;&gt; "" And itemContent &lt;&gt; "" Then
-            myBody = myBody &amp; "&amp;lt;" &amp; itemTitle &amp; "&amp;gt;" &amp; "&lt;br&gt;&lt;br&gt;"
-            myBody = myBody &amp; itemContent &amp; "&lt;br&gt;&lt;br&gt;"
-        End If
-    Next
-    myMail.HTMLBody = Replace(myBody, vbLf, "&lt;br&gt;")
-    myMail.Display
-End Sub
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -696,6 +603,102 @@
     <rPh sb="0" eb="1">
       <t>ズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Sub Worksheet_Change(ByVal Target As Range)
+    Dim inText, outText As String
+    Dim i, head, lineLen As Long
+    Dim currentLine As String
+    Dim currentCell As Range
+    Const limitLength As Long = 80
+    If TypeName(Target.Value) &lt;&gt; "String" Then Exit Sub
+    If Intersect(Target, Range("B:Z")) Is Nothing Then Exit Sub
+    Application.EnableEvents = False
+    Set currentCell = Target
+    inText = currentCell.Value
+    outText = ""
+    If LenB(StrConv(inText, vbFromUnicode)) &gt; limitLength Then
+        lineLen = 1 ' current line length
+        head = 1    ' pointer to current line head
+        ' parse input text per character
+        For i = 1 To Len(inText)
+            currentLine = Mid(inText, head, lineLen)
+            If i = Len(inText) Then
+                ' Reach end of text.  Flush the current line.
+                outText = outText &amp; currentLine
+            ElseIf Mid(currentLine, lineLen, 1) = vbLf Then
+                ' Reach end of line.  Flush the current line and start a new line to parse
+                outText = outText &amp; currentLine
+                head = head + lineLen
+                lineLen = 1
+            ElseIf LenB(StrConv(currentLine, vbFromUnicode)) &gt;= limitLength Then
+                ' Reached the maximum line length.  Flush the current line.
+                outText = outText &amp; currentLine &amp; vbLf
+                If Mid(inText, head + lineLen, 1) = vbLf Then
+                    ' The next character following the curret line is a line break,
+                    ' meaning that the current line already fits the limit.
+                    ' So we can skip this line break.
+                    lineLen = lineLen + 1
+                End If
+                head = head + lineLen  'Prepare to read the next line
+                lineLen = 1
+            Else
+                lineLen = lineLen + 1 'Prepare to read the next character of the current line
+            End If
+        Next i
+        currentCell.Value = outText
+    End If
+    SendKeys "{F2}"
+    Application.EnableEvents = True
+End Sub
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Create_RegurarReport()
+    Const MAX_ROWS = 100
+    Const MAX_COLS = 10
+    Dim wb
+    Dim myMail As MailItem
+    Dim myBody As String
+    Dim found As Boolean
+    Set wb = GetObject("EXCEL_DATA_PATH")   ' Must be changed to the right path.
+    Set myMail = CreateItemFromTemplate("TEMPLATE_PATH") ' Must be changed to the right path.
+    'Set date
+    Dim today, xlDate As String
+    today = Date
+    'Search for today 's report
+    found = False
+    For iRow = 1 To MAX_ROWS
+        xlDate = wb.Worksheets(1).Cells(iRow, 1).Value
+        If xlDate = today Then
+          found = True
+          Exit For
+        End If
+    Next
+    If Not found Then
+        MsgBox ("今日報告分のエントリが見つかりませんでした。")
+        End
+    End If
+    myMail.Subject = wb.Worksheets(1).Cells(1, 1).Value
+    myMail.Subject = myMail.Subject &amp; "(" &amp; Format(today, "yyyy/m/d") &amp; ")"
+    'Search for columns
+    Dim itemTitle As String
+    For iCol = 2 To MAX_COLS
+        'Get title of report item
+        itemTitle = wb.Worksheets(1).Cells(1, iCol).Value
+        'Get content of report item
+        itemContent = wb.Worksheets(1).Cells(iRow, iCol).Value
+        If itemTitle &lt;&gt; "" And itemContent &lt;&gt; "" Then
+            myBody = myBody &amp; "&amp;lt;" &amp; itemTitle &amp; "&amp;gt;" &amp; "&lt;br&gt;&lt;br&gt;"
+            myBody = myBody &amp; itemContent &amp; "&lt;br&gt;&lt;br&gt;"
+        End If
+    Next
+    myMail.HTMLBody = Replace(myBody, vbLf, "&lt;br&gt;")
+    myMail.Display
+End Sub
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1173,7 +1176,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1241,7 +1244,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1261,15 +1264,15 @@
     </row>
     <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1277,7 +1280,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1305,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1320,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1326,7 +1329,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
